--- a/newSheet.xlsx
+++ b/newSheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t xml:space="preserve"> dsdsm</t>
   </si>
@@ -28,6 +28,12 @@
   </si>
   <si>
     <t>nfksk</t>
+  </si>
+  <si>
+    <t>klwndew</t>
+  </si>
+  <si>
+    <t>kebckje</t>
   </si>
 </sst>
 </file>
@@ -345,25 +351,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F4:K14"/>
+  <dimension ref="F4:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="J6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="6:13" x14ac:dyDescent="0.25">
       <c r="K8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
         <v>1</v>
       </c>
